--- a/biology/Zoologie/Inlecypris_jayarami/Inlecypris_jayarami.xlsx
+++ b/biology/Zoologie/Inlecypris_jayarami/Inlecypris_jayarami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Inlecypris
 Inlecypris jayarami, unique représentant du genre Inlecypris, est une espèce de poissons d'eau douce téléostéens de la famille des Cyprinidae (ordre des Cypriniformes).
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inlecypris jayarami se rencontre en Asie dans le bassin de la Salouen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inlecypris jayarami se rencontre en Asie dans le bassin de la Salouen.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Inlecypris jayarami a été décrite pour la première fois en 1985 par R. P. Barman (d) sous le protonyme Danio jayarami[2].
-Elle a été reclassée ultérieurement dans le genre Inlecypris que Howes (d) a créé en 1980[2],[3].
-Inlecypris jayarami a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'espèce Inlecypris jayarami a été décrite pour la première fois en 1985 par R. P. Barman (d) sous le protonyme Danio jayarami.
+Elle a été reclassée ultérieurement dans le genre Inlecypris que Howes (d) a créé en 1980,.
+Inlecypris jayarami a pour synonymes :
 Brachydanio jayarami (Barman, 1985)
 Danio jayarami Barman, 1985
 Danio jayrami Barman, 1985
@@ -579,10 +595,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Inlecypris, fait référence au lac Inle (État shan dans l'Est de la Birmanie) où a été découverte l'espèce Inlecypris auropurpureus[4], désormais classée dans le genre Devario. 
-L'épithète spécifique, jayarami, lui a été donnée en l'honneur de l'ichtyologiste indien Kottore Chidambaram Jayaram (d)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Inlecypris, fait référence au lac Inle (État shan dans l'Est de la Birmanie) où a été découverte l'espèce Inlecypris auropurpureus, désormais classée dans le genre Devario. 
+L'épithète spécifique, jayarami, lui a été donnée en l'honneur de l'ichtyologiste indien Kottore Chidambaram Jayaram (d).
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Genre Inlecypris :
 (en) Gordon Jon Howes, « A new genus of cheline cyprinid fishes », Bulletin of the British Museum (Natural History), zoology, Londres, vol. 38, no 3,‎ 29 mai 1980, p. 171-173 (ISSN 0007-1498, lire en ligne, consulté le 19 février 2024).
